--- a/wave.bat.xlsx
+++ b/wave.bat.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
   <si>
     <t>Time</t>
   </si>
@@ -367,28 +367,13 @@
     <t>01000118</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>01000071</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>01000127</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>s3</t>
+    <t>stealw1</t>
+  </si>
+  <si>
+    <t>stealw2</t>
+  </si>
+  <si>
+    <t>stealw3</t>
   </si>
 </sst>
 </file>
@@ -1423,38 +1408,38 @@
         <v>117</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="2" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>3340.0</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>3320.0</v>
-      </c>
-      <c r="B53" s="6" t="s">
+    <row r="54">
+      <c r="A54" s="2">
+        <v>3360.0</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>3320.0</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="55">
